--- a/input/data/Local_Vendor_Data.xlsx
+++ b/input/data/Local_Vendor_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC4E21D-2F63-4AE8-9EA9-DD7A42217CFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09513B7E-494A-4406-ABB7-E119538F8CC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="2436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="149">
   <si>
     <t>S.NO</t>
   </si>
@@ -30,18 +30,12 @@
     <t>Test_Case</t>
   </si>
   <si>
-    <t>Execute</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>BE</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -189,12 +183,6 @@
     <t>Production | Raw material, ingredient or processing aid</t>
   </si>
   <si>
-    <t>OpCo</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Vendor Posting Group</t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>DD SEPA, DirectDebit SEPA</t>
   </si>
   <si>
-    <t>Extend Vendor Global and local with Rejections for NAV (For Algeria to panama)</t>
-  </si>
-  <si>
     <t>A/B Amount Currency</t>
   </si>
   <si>
@@ -288,17 +273,209 @@
     <t>001, Heineken bears the cost</t>
   </si>
   <si>
-    <t>SG04</t>
-  </si>
-  <si>
-    <t>69Extend Vendor Global and Local from  SAP to JDE (With Local data adding)</t>
+    <t>13.Create Vendor with Questionnaire only Globa Rejections with Discard_SAP.xml</t>
+  </si>
+  <si>
+    <t>14.Create_Vendor_with_Questionnaire_only_Global_SAP.xml</t>
+  </si>
+  <si>
+    <t>15.Create_Vendor_with_Save_as_Draft_only_Global_SAP.xml</t>
+  </si>
+  <si>
+    <t>16.Create_Vendor_with_Questionnaire_only_Global_with_Rejections_SAP.xml</t>
+  </si>
+  <si>
+    <t>17.Create_Vendor_with_Questionnaire_with_Global_and_Local_JDE.xml</t>
+  </si>
+  <si>
+    <t>18.Create_Vendor_Happy Flow Global and Local with Rejections_JDE.xml</t>
+  </si>
+  <si>
+    <t>19.Create_Vendor_with_Questionnaire_with_Global_and_Local_with_Discard _JDE.xml</t>
+  </si>
+  <si>
+    <t>20.Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_JDE.xml</t>
+  </si>
+  <si>
+    <t>21.Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_with_Discard_JDE.xml</t>
+  </si>
+  <si>
+    <t>22.Create_Vendor_with_Questionnaire_with_Global_and_Local_NAV.xml</t>
+  </si>
+  <si>
+    <t>23.Create_Vendor_with_Questionnaire_with_Global_and_Local_with_Rejections_NAV.xml</t>
+  </si>
+  <si>
+    <t>24Create_Vendor_with_Questionnaire_with_Global_and_Local_with_Rejections_and_Discard_NAV.xml</t>
+  </si>
+  <si>
+    <t>25Create_Vendor_with_Questionnaire_with_Global_and_Local_and_Bank_NAV.xml</t>
+  </si>
+  <si>
+    <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
+  </si>
+  <si>
+    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
+  </si>
+  <si>
+    <t>5.Change _vendor_global _Only.xml</t>
+  </si>
+  <si>
+    <t>6.Change_Vendor_Global_only_with_Rejections.xml</t>
+  </si>
+  <si>
+    <t>86Change Vendor global and local NAV.xml</t>
+  </si>
+  <si>
+    <t>87Change Vendor global and local with Rejections and Discard NAV.xml</t>
+  </si>
+  <si>
+    <t>91.Change_Vendor_global local_JDE.xml</t>
+  </si>
+  <si>
+    <t>98.Change_Vendor_Happy Flow Global and Local with Rejections_JDE.xml</t>
+  </si>
+  <si>
+    <t>55Vendor_Extend_Global_only_for_SAP.xml</t>
+  </si>
+  <si>
+    <t>58Extend Vendor Global, Local NAV(Diff. Target System local data adding).xml</t>
+  </si>
+  <si>
+    <t>59.Extend vendor Global and Local for JDE.xml</t>
+  </si>
+  <si>
+    <t>68.Vendor_Extend_Global_only_for_SAP.xml</t>
+  </si>
+  <si>
+    <t>69Extend Vendor Global and Local from  SAP to JDE (With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>70Extend Vendor Global and Local from SAP to  NAV(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>71Extend Vendor Global only with Rejections for SAP any opco to PL.xml</t>
+  </si>
+  <si>
+    <t>72Extend Vendor Global Only  with Rejections and Discard for SAP (Extend any OpCo to PL) .xml</t>
+  </si>
+  <si>
+    <t>80Extend Vendor Global and local with Rejections with Discard for NAV (For Algeria to panama).xml</t>
+  </si>
+  <si>
+    <t>81Extend vendor Global and Local nav from DZ to PA with Rejections.xml</t>
+  </si>
+  <si>
+    <t>89Extend Vendor Global and Local from  NAV to JDE (With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>90Extend Vendor Global and Local from JDE to  NAV(With Local data adding).xml</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -319,8 +496,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Mic Shell Dlg"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +520,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -363,11 +562,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,8 +594,11 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,57 +938,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IY3"/>
+  <dimension ref="A1:IZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.33203125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.44140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.44140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.77734375" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20" style="6" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.88671875" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" style="6" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.33203125" style="6" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="31.44140625" style="6" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.88671875" style="6" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.77734375" style="6" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26.77734375" style="6" customWidth="1" collapsed="1"/>
-    <col min="20" max="257" width="9.109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="258" max="258" width="9.109375" style="7" collapsed="1"/>
-    <col min="259" max="259" width="9.109375" style="7"/>
-    <col min="260" max="16384" width="9.109375" style="7" collapsed="1"/>
+    <col min="1" max="1" width="5.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="97" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" style="6" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="31.42578125" style="6" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.7109375" style="6" customWidth="1" collapsed="1"/>
+    <col min="18" max="255" width="9.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="256" max="256" width="9.140625" style="7" collapsed="1"/>
+    <col min="257" max="257" width="9.140625" style="7"/>
+    <col min="258" max="258" width="9.140625" style="7" collapsed="1"/>
+    <col min="259" max="260" width="9.140625" style="7"/>
+    <col min="261" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>61</v>
@@ -782,158 +997,2520 @@
         <v>62</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="9" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="K5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -952,118 +3529,118 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="254" width="9.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="255" max="255" width="4.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="254" width="9.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="255" max="255" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1085,179 +3662,179 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="123.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="256" width="9.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="123.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/Local_Vendor_Data.xlsx
+++ b/input/data/Local_Vendor_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09513B7E-494A-4406-ABB7-E119538F8CC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BBFE5-1F0C-44E8-A746-71F59C472C2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="152">
   <si>
     <t>S.NO</t>
   </si>
@@ -469,13 +469,22 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>Adjustment Schedule</t>
+  </si>
+  <si>
+    <t>104.Extend vendor global and local for JDE with rejections</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -940,11 +949,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="6" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="97" customWidth="1" collapsed="1"/>
@@ -963,7 +972,8 @@
     <col min="15" max="15" width="16.85546875" style="6" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="19.7109375" style="6" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="26.7109375" style="6" customWidth="1" collapsed="1"/>
-    <col min="18" max="255" width="9.140625" style="6" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.85546875" style="6" customWidth="1" collapsed="1"/>
+    <col min="19" max="255" width="9.140625" style="6" customWidth="1" collapsed="1"/>
     <col min="256" max="256" width="9.140625" style="7" collapsed="1"/>
     <col min="257" max="257" width="9.140625" style="7"/>
     <col min="258" max="258" width="9.140625" style="7" collapsed="1"/>
@@ -971,7 +981,7 @@
     <col min="261" max="16384" width="9.140625" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1023,8 +1033,11 @@
       <c r="Q1" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>60</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>74</v>
@@ -1076,8 +1089,11 @@
       <c r="Q2" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1113,7 @@
         <v>60</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>74</v>
@@ -1129,8 +1145,11 @@
       <c r="Q3" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
         <v>116</v>
       </c>
@@ -1150,7 +1169,7 @@
         <v>60</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>74</v>
@@ -1182,8 +1201,11 @@
       <c r="Q4" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="6" t="s">
         <v>117</v>
       </c>
@@ -1203,7 +1225,7 @@
         <v>60</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>74</v>
@@ -1235,8 +1257,11 @@
       <c r="Q5" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
         <v>118</v>
       </c>
@@ -1256,7 +1281,7 @@
         <v>60</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>74</v>
@@ -1288,8 +1313,11 @@
       <c r="Q6" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="6" t="s">
         <v>119</v>
       </c>
@@ -1309,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>74</v>
@@ -1341,8 +1369,11 @@
       <c r="Q7" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
         <v>120</v>
       </c>
@@ -1362,7 +1393,7 @@
         <v>60</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>74</v>
@@ -1394,8 +1425,11 @@
       <c r="Q8" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="6" t="s">
         <v>121</v>
       </c>
@@ -1415,7 +1449,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>74</v>
@@ -1447,8 +1481,11 @@
       <c r="Q9" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="6" t="s">
         <v>122</v>
       </c>
@@ -1468,7 +1505,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>74</v>
@@ -1500,8 +1537,11 @@
       <c r="Q10" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="6" t="s">
         <v>123</v>
       </c>
@@ -1521,7 +1561,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>74</v>
@@ -1553,8 +1593,11 @@
       <c r="Q11" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="6" t="s">
         <v>124</v>
       </c>
@@ -1574,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>74</v>
@@ -1606,8 +1649,11 @@
       <c r="Q12" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="6" t="s">
         <v>125</v>
       </c>
@@ -1627,7 +1673,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>74</v>
@@ -1659,8 +1705,11 @@
       <c r="Q13" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -1680,7 +1729,7 @@
         <v>60</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>74</v>
@@ -1712,8 +1761,11 @@
       <c r="Q14" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="6" t="s">
         <v>127</v>
       </c>
@@ -1733,7 +1785,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>74</v>
@@ -1765,8 +1817,11 @@
       <c r="Q15" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
         <v>128</v>
       </c>
@@ -1786,7 +1841,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>74</v>
@@ -1818,8 +1873,11 @@
       <c r="Q16" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="6" t="s">
         <v>129</v>
       </c>
@@ -1839,7 +1897,7 @@
         <v>60</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>74</v>
@@ -1871,8 +1929,11 @@
       <c r="Q17" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="6" t="s">
         <v>130</v>
       </c>
@@ -1892,7 +1953,7 @@
         <v>60</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>74</v>
@@ -1924,8 +1985,11 @@
       <c r="Q18" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="6" t="s">
         <v>131</v>
       </c>
@@ -1945,7 +2009,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>74</v>
@@ -1977,8 +2041,11 @@
       <c r="Q19" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
         <v>132</v>
       </c>
@@ -1998,7 +2065,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>74</v>
@@ -2030,8 +2097,11 @@
       <c r="Q20" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="6" t="s">
         <v>133</v>
       </c>
@@ -2051,7 +2121,7 @@
         <v>60</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>74</v>
@@ -2083,8 +2153,11 @@
       <c r="Q21" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
         <v>134</v>
       </c>
@@ -2104,7 +2177,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>74</v>
@@ -2136,8 +2209,11 @@
       <c r="Q22" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="6" t="s">
         <v>135</v>
       </c>
@@ -2157,7 +2233,7 @@
         <v>60</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>74</v>
@@ -2189,8 +2265,11 @@
       <c r="Q23" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="6" t="s">
         <v>136</v>
       </c>
@@ -2210,7 +2289,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>74</v>
@@ -2242,8 +2321,11 @@
       <c r="Q24" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="6" t="s">
         <v>137</v>
       </c>
@@ -2263,7 +2345,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>74</v>
@@ -2295,8 +2377,11 @@
       <c r="Q25" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="6" t="s">
         <v>138</v>
       </c>
@@ -2316,7 +2401,7 @@
         <v>60</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>74</v>
@@ -2348,8 +2433,11 @@
       <c r="Q26" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="6" t="s">
         <v>139</v>
       </c>
@@ -2369,7 +2457,7 @@
         <v>60</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>74</v>
@@ -2401,8 +2489,11 @@
       <c r="Q27" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="6" t="s">
         <v>140</v>
       </c>
@@ -2422,7 +2513,7 @@
         <v>60</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>74</v>
@@ -2454,8 +2545,11 @@
       <c r="Q28" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="6" t="s">
         <v>141</v>
       </c>
@@ -2475,7 +2569,7 @@
         <v>60</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>74</v>
@@ -2507,8 +2601,11 @@
       <c r="Q29" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="6" t="s">
         <v>142</v>
       </c>
@@ -2528,7 +2625,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>74</v>
@@ -2560,8 +2657,11 @@
       <c r="Q30" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="6" t="s">
         <v>143</v>
       </c>
@@ -2581,7 +2681,7 @@
         <v>60</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>74</v>
@@ -2613,8 +2713,11 @@
       <c r="Q31" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="6" t="s">
         <v>144</v>
       </c>
@@ -2634,7 +2737,7 @@
         <v>60</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>74</v>
@@ -2666,8 +2769,11 @@
       <c r="Q32" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="6" t="s">
         <v>145</v>
       </c>
@@ -2687,7 +2793,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>74</v>
@@ -2719,8 +2825,11 @@
       <c r="Q33" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="6" t="s">
         <v>146</v>
       </c>
@@ -2740,7 +2849,7 @@
         <v>60</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>74</v>
@@ -2772,8 +2881,11 @@
       <c r="Q34" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="6" t="s">
         <v>147</v>
       </c>
@@ -2793,7 +2905,7 @@
         <v>60</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>74</v>
@@ -2825,8 +2937,11 @@
       <c r="Q35" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="6" t="s">
         <v>148</v>
       </c>
@@ -2846,7 +2961,7 @@
         <v>60</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>74</v>
@@ -2878,27 +2993,67 @@
       <c r="Q36" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="4"/>
       <c r="B38" s="12"/>
       <c r="C38" s="3"/>
@@ -2917,7 +3072,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="4"/>
       <c r="B39" s="12"/>
       <c r="C39" s="3"/>
@@ -2936,7 +3091,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="B40" s="12"/>
       <c r="C40" s="3"/>
@@ -2955,7 +3110,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="4"/>
       <c r="B41" s="12"/>
       <c r="C41" s="3"/>
@@ -2974,7 +3129,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="4"/>
       <c r="B42" s="12"/>
       <c r="C42" s="3"/>
@@ -2993,7 +3148,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="4"/>
       <c r="B43" s="12"/>
       <c r="C43" s="3"/>
@@ -3012,7 +3167,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="4"/>
       <c r="B44" s="12"/>
       <c r="C44" s="3"/>
@@ -3031,7 +3186,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="4"/>
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
@@ -3050,7 +3205,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="4"/>
       <c r="B46" s="12"/>
       <c r="C46" s="3"/>
@@ -3069,7 +3224,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="4"/>
       <c r="B47" s="12"/>
       <c r="C47" s="3"/>
@@ -3088,7 +3243,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="4"/>
       <c r="B48" s="12"/>
       <c r="C48" s="3"/>
@@ -3107,7 +3262,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="4"/>
       <c r="B49" s="12"/>
       <c r="C49" s="3"/>
@@ -3126,7 +3281,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="4"/>
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
@@ -3145,7 +3300,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="4"/>
       <c r="B51" s="12"/>
       <c r="C51" s="3"/>
@@ -3164,7 +3319,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="4"/>
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
@@ -3183,7 +3338,7 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="4"/>
       <c r="B53" s="12"/>
       <c r="C53" s="3"/>
@@ -3202,7 +3357,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="4"/>
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
@@ -3221,7 +3376,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="4"/>
       <c r="B55" s="12"/>
       <c r="C55" s="3"/>
@@ -3240,7 +3395,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="4"/>
       <c r="B56" s="12"/>
       <c r="C56" s="3"/>
@@ -3259,7 +3414,7 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="4"/>
       <c r="B57" s="12"/>
       <c r="C57" s="3"/>
@@ -3278,7 +3433,7 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="4"/>
       <c r="B58" s="12"/>
       <c r="C58" s="3"/>
@@ -3297,7 +3452,7 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="4"/>
       <c r="B59" s="12"/>
       <c r="C59" s="3"/>
@@ -3316,7 +3471,7 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="4"/>
       <c r="B60" s="12"/>
       <c r="C60" s="3"/>
@@ -3335,7 +3490,7 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" s="4"/>
       <c r="B61" s="12"/>
       <c r="C61" s="3"/>
@@ -3354,7 +3509,7 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="4"/>
       <c r="B62" s="12"/>
       <c r="C62" s="3"/>
@@ -3373,7 +3528,7 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" s="4"/>
       <c r="B63" s="12"/>
       <c r="C63" s="3"/>
@@ -3392,7 +3547,7 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="4"/>
       <c r="B64" s="12"/>
       <c r="C64" s="3"/>
@@ -3411,7 +3566,7 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" s="4"/>
       <c r="B65" s="12"/>
       <c r="C65" s="3"/>
@@ -3430,7 +3585,7 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="4"/>
       <c r="B66" s="12"/>
       <c r="C66" s="3"/>
@@ -3449,63 +3604,63 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" s="4"/>
       <c r="B67" s="12"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="4"/>
       <c r="B68" s="12"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" s="4"/>
       <c r="B69" s="12"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="4"/>
       <c r="B70" s="12"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" s="4"/>
       <c r="B71" s="12"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="4"/>
       <c r="B72" s="12"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" s="4"/>
       <c r="B73" s="12"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" s="4"/>
       <c r="B74" s="12"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" s="4"/>
       <c r="B75" s="12"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="4"/>
       <c r="B76" s="12"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" s="4"/>
       <c r="B77" s="12"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="4"/>
       <c r="B78" s="12"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="4"/>
       <c r="B79" s="12"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="4"/>
       <c r="B80" s="12"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="4"/>
       <c r="B81" s="12"/>
     </row>
@@ -3529,7 +3684,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1" collapsed="1"/>
@@ -3541,7 +3696,7 @@
     <col min="256" max="256" width="55" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3558,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3575,7 +3730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3609,7 +3764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3626,7 +3781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -3662,14 +3817,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="123.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="256" width="9.140625" style="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3677,7 +3832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3685,7 +3840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -3701,7 +3856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -3709,7 +3864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3717,7 +3872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3725,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -3733,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -3741,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3749,7 +3904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3757,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3765,7 +3920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -3773,7 +3928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -3781,7 +3936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -3789,7 +3944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3797,7 +3952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3805,7 +3960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -3813,7 +3968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3821,7 +3976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -3829,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>

--- a/input/data/Local_Vendor_Data.xlsx
+++ b/input/data/Local_Vendor_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1BBFE5-1F0C-44E8-A746-71F59C472C2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD65519-5FE5-4B61-95A2-3032C15C9740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,9 +315,6 @@
     <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
   </si>
   <si>
-    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
-  </si>
-  <si>
     <t>5.Change _vendor_global _Only.xml</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>46</t>
+  </si>
+  <si>
+    <t>4.Change_vendor_global__local__Bank.xml</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IZ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:R37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1034,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1151,7 +1151,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>85</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>86</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>87</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>88</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>89</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>90</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>91</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>92</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>93</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>94</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>95</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>96</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>
@@ -1879,10 +1879,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>54</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>54</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>54</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>54</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>54</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>54</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>54</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>54</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>54</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>54</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>54</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>54</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>54</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>54</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>54</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>54</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>54</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>54</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
